--- a/コーディング セルフチェックシート.xlsx
+++ b/コーディング セルフチェックシート.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="62">
   <si>
     <t>はじめに</t>
   </si>
@@ -130,7 +130,7 @@
         <color theme="1"/>
         <sz val="14.0"/>
       </rPr>
-      <t>META情報やファビコン、OGP画像が全く用意されていなかった場合に、それらをディレクターやデザイナーが用意や制作する期間に余裕を持つことができる</t>
+      <t>META情報、サーバー情報やファビコン、OGP画像が全く用意されていなかった場合に、それらをディレクターやデザイナーが用意や制作する期間に余裕を持つことができる</t>
     </r>
     <r>
       <rPr>
@@ -139,11 +139,20 @@
         <sz val="11.0"/>
       </rPr>
       <t>からです。
-META情報であれば、テキストのみなので用意はしやすいですが、ファビコンやOGP画像はデザイナーが作らなければならないので、ある程度リソースが必要になります。
-ですが、制作ページ数が多い場合でもMETA情報はその分増えますので、状況によってこちらもリソースが必要です。
-それらを事前に伝えることで、準備期間のリソースを産むことにより、制作が進行しやすくなります。
+META情報であれば、テキストのみなので用意はしやすいですが、ファビコンやOGP画像はデザイナーが作らなければならないので、ある程度リソースが必要になります。ですが、制作ページ数が多い場合でもMETA情報はその分増えますので、状況によってこちらもリソースが必要です。
+例
+◾️META情報がなかった(確保期間 2~3日 【5ステップ発生】)
+コーダーがディレクターに確認 → ディレクターが依頼主に依頼 → 依頼主がMETA情報を作る → ディレクターに渡す → コーダーに渡す
+◾️サーバー情報がなかった(確保期間 2~3日 【5~7ステップ発生】)
+コーダーがディレクターに確認 → ディレクターが依頼主からサーバー情報をもらう → 場合によってドメイン移管やレンタルサーバーを移行 → なんやかんやでテストサーバーも用意
+◾️ファビコン、OGPがなかった(確保期間 1~3日 【5ステップ発生】)
+コーダーがディレクターに確認 → ディレクターからデザイナーにファビコンとOGPの制作の依頼 → デザイナーがスケジュールを確認し、制作のタイミングを調整 → 制作し、ディレクターに渡す → コーダーに渡す
+上記の様に、サイトの情報や素材が全て完璧に用意されているケースは稀で、経験上、6~7割ぐらいは何かしら漏れがあります(基本、漏れがあると思ってください)。
+その中でも、最低限サイトの形として必要情報を事前に伝えることで、準備期間のリソースを産むことにより、制作が進行しやすくなります。
+逆に言うと、納品間近になってこれらがなかった場合、最後の最後で詰め詰めなスケジュールになります(僕は経験しました。チャット内が殺伐とし、精神的にキツくなります)
 「コーダーさんが気づいてくれたおかげで、納期に間に合った！」ということになれば、信頼も得られ、継続案件にも繋がるでしょう
-ぜひ、セルフチェックシートを活用していただき【</t>
+というかディレクターやデザイナーが用意したものを全部サイトにぶっ込むのがコーダーの仕事であり、その最終工程のコーダーが（なんでコーダーが気づかないんだよ...気づいてくれよ...）というシワ寄せが来るので、確認ぐらいはこっちからしないとフリーランスは仕事がもらえないんです！(泣)
+なので、皆さんもぜひ、セルフチェックシートを活用していただき【</t>
     </r>
     <r>
       <rPr>
@@ -248,41 +257,45 @@
     <t>大きめのモニター 1500px ~ 1920px</t>
   </si>
   <si>
-    <t>WPログイン：ID</t>
+    <t>WPログイン：URL</t>
   </si>
   <si>
     <t>ノートパソコン 1200px~1500px</t>
   </si>
   <si>
-    <t>WPログイン：PASS</t>
+    <t>WPログイン：ID</t>
   </si>
   <si>
     <t>タブレット 681px~1200px</t>
   </si>
   <si>
-    <t>FTP：ホスト</t>
+    <t>WPログイン：PASS</t>
   </si>
   <si>
     <t>スマホ 330px~680px</t>
   </si>
   <si>
+    <t>FTP：ホスト</t>
+  </si>
+  <si>
     <t>FTP：ユーザー</t>
+  </si>
+  <si>
+    <t>WordPress 基本チェック</t>
   </si>
   <si>
     <t>FTP：パスワード</t>
   </si>
   <si>
-    <t>WordPress 基本チェック</t>
+    <t>SEO設定はできているか？</t>
   </si>
   <si>
     <t>〇〇様
 お世話になっております。
 以下サーバー情報についてご用意が出来次第共有のほど、お願いいたします。
 ・WordPressのログインID、PASS
-・FTP情報(ホスト、ユーザー、パスワード)</t>
-  </si>
-  <si>
-    <t>SEO設定はできているか？</t>
+・FTP情報(ホスト、ユーザー、パスワード)
+・テストサーバの情報(ご用意出来ない場合は自前のドメインで作成しますので、ご連絡ください)</t>
   </si>
   <si>
     <t>Googleタグマネージャーは挿入はできているか？</t>
@@ -294,10 +307,10 @@
     <t>「検索エンジンがサイトをインデックスしないようにする」を解除しているか？</t>
   </si>
   <si>
-    <t>本番サーバー情報</t>
+    <t>ページスピードインサイトでPC、スマホともに50点を超えているか？</t>
   </si>
   <si>
-    <t>ページスピードインサイトでPC、スマホともに50点を超えているか？</t>
+    <t>本番サーバー情報</t>
   </si>
   <si>
     <t>WordPressの管理者のアドレスが個人のものになってないか？</t>
@@ -310,6 +323,9 @@
   </si>
   <si>
     <t>デザイン関連</t>
+  </si>
+  <si>
+    <t>デザインURL(XD or Figma)</t>
   </si>
   <si>
     <t>SPデザインの有無
@@ -577,14 +593,12 @@
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -592,9 +606,11 @@
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -851,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="325.5" customHeight="1">
+    <row r="4" ht="563.25" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -880,6 +896,9 @@
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -898,7 +917,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="60.5"/>
     <col customWidth="1" min="4" max="4" width="5.63"/>
     <col customWidth="1" min="5" max="5" width="18.25"/>
@@ -1061,7 +1080,7 @@
       <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="10" t="b">
         <v>0</v>
       </c>
@@ -1093,18 +1112,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="20.25" customHeight="1">
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="22"/>
       <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
@@ -1113,141 +1130,136 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>42</v>
+      <c r="F22" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
       <c r="E23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="22"/>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="E24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="E25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>46</v>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="C26" s="22"/>
       <c r="E26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>47</v>
+      <c r="F26" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28">
       <c r="B28" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="24"/>
     </row>
     <row r="29">
       <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25"/>
     </row>
     <row r="32">
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="24"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35">
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>52</v>
+      <c r="C35" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -1255,83 +1267,100 @@
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39">
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42">
       <c r="B42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="E45" s="6"/>
+      <c r="C46" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49">
@@ -5151,15 +5180,15 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5177,7 +5206,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="60.5"/>
     <col customWidth="1" min="4" max="4" width="5.63"/>
     <col customWidth="1" min="5" max="5" width="18.25"/>
@@ -5340,7 +5369,7 @@
       <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="10" t="b">
         <v>0</v>
       </c>
@@ -5372,18 +5401,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="20.25" customHeight="1">
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="22"/>
       <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
@@ -5392,141 +5419,136 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>42</v>
+      <c r="F22" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
       <c r="E23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="22"/>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="E24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="E25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>46</v>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="C26" s="22"/>
       <c r="E26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>47</v>
+      <c r="F26" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28">
       <c r="B28" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="24"/>
     </row>
     <row r="29">
       <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25"/>
     </row>
     <row r="32">
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="24"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35">
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>52</v>
+      <c r="C35" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -5534,83 +5556,100 @@
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39">
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42">
       <c r="B42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="E45" s="6"/>
+      <c r="C46" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49">
@@ -9423,6 +9462,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:C3"/>
@@ -9430,15 +9478,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9456,7 +9495,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="60.5"/>
     <col customWidth="1" min="4" max="4" width="5.63"/>
     <col customWidth="1" min="5" max="5" width="18.25"/>
@@ -9619,7 +9658,7 @@
       <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="10" t="b">
         <v>0</v>
       </c>
@@ -9651,18 +9690,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="20.25" customHeight="1">
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="22"/>
       <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
@@ -9671,141 +9708,136 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>42</v>
+      <c r="F22" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
       <c r="E23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="22"/>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="E24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="E25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>46</v>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="C26" s="22"/>
       <c r="E26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>47</v>
+      <c r="F26" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28">
       <c r="B28" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="24"/>
     </row>
     <row r="29">
       <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25"/>
     </row>
     <row r="32">
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="24"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35">
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>52</v>
+      <c r="C35" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -9813,83 +9845,100 @@
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39">
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42">
       <c r="B42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="E45" s="6"/>
+      <c r="C46" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49">
@@ -13702,6 +13751,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:C3"/>
@@ -13709,15 +13767,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13735,7 +13784,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="60.5"/>
     <col customWidth="1" min="4" max="4" width="5.63"/>
     <col customWidth="1" min="5" max="5" width="18.25"/>
@@ -13898,7 +13947,7 @@
       <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="10" t="b">
         <v>0</v>
       </c>
@@ -13930,18 +13979,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="20.25" customHeight="1">
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="22"/>
       <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
@@ -13950,141 +13997,136 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>42</v>
+      <c r="F22" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
       <c r="E23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="22"/>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="E24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="E25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>46</v>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="C26" s="22"/>
       <c r="E26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>47</v>
+      <c r="F26" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28">
       <c r="B28" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="24"/>
     </row>
     <row r="29">
       <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25"/>
     </row>
     <row r="32">
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="24"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35">
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>52</v>
+      <c r="C35" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -14092,83 +14134,100 @@
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39">
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42">
       <c r="B42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="E45" s="6"/>
+      <c r="C46" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49">
@@ -17981,6 +18040,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:C3"/>
@@ -17988,15 +18056,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18014,7 +18073,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="60.5"/>
     <col customWidth="1" min="4" max="4" width="5.63"/>
     <col customWidth="1" min="5" max="5" width="18.25"/>
@@ -18177,7 +18236,7 @@
       <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="10" t="b">
         <v>0</v>
       </c>
@@ -18209,18 +18268,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" ht="20.25" customHeight="1">
-      <c r="B19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="22"/>
       <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
@@ -18229,141 +18286,136 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="E22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>42</v>
+      <c r="F22" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
       <c r="E23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="22"/>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="E24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="E25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>46</v>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="C26" s="22"/>
       <c r="E26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>47</v>
+      <c r="F26" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28">
       <c r="B28" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="24"/>
     </row>
     <row r="29">
       <c r="B29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31">
-      <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25"/>
     </row>
     <row r="32">
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="8"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="24"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35">
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>52</v>
+      <c r="C35" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -18371,83 +18423,100 @@
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39">
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="B41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="C41" s="8"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42">
       <c r="B42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="E45" s="6"/>
+      <c r="C46" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48">
-      <c r="B48" s="6"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49">
@@ -22260,6 +22329,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:C3"/>
@@ -22267,15 +22345,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
